--- a/data/27-11-2025-lookup_types-all.xlsx
+++ b/data/27-11-2025-lookup_types-all.xlsx
@@ -1,1467 +1,1476 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="lookup_types-All" state="visible" r:id="rId4"/>
+    <sheet name="lookup_types-All" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="589">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Sort Order</t>
-  </si>
-  <si>
-    <t>Is System Default</t>
-  </si>
-  <si>
-    <t>Is Ring Based</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Created At</t>
-  </si>
-  <si>
-    <t>Updated At</t>
-  </si>
-  <si>
-    <t>9398a2ae-851f-41b9-8f99-bef52b849ecf</t>
-  </si>
-  <si>
-    <t>MAINTENANCE_AREA_TYPES</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Default entry for MAINTENANCE_AREA_TYPES category</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>93973b23-e7ea-43cc-bf9b-9eefcf26ffb5</t>
-  </si>
-  <si>
-    <t>NODE_TYPES</t>
-  </si>
-  <si>
-    <t>Default entry for NODE_TYPES category</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5fc1fe30-afee-4b41-b3e9-c6df0c08af21</t>
-  </si>
-  <si>
-    <t>BUSINESS_AREA_TYPE</t>
-  </si>
-  <si>
-    <t>Default entry for Business Area Type category</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>d18ad210-52e3-43b5-a0a1-6fd6533ec576</t>
-  </si>
-  <si>
-    <t>RING_TYPES</t>
-  </si>
-  <si>
-    <t>Default entry for RING_TYPES category</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>834e9eb5-4752-4abb-a7b9-141496457f25</t>
-  </si>
-  <si>
-    <t>SYSTEM_TYPES</t>
-  </si>
-  <si>
-    <t>Default entry for SYSTEM_TYPES category</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>acaae723-ebd1-40f8-a4ba-251d0f4c197d</t>
-  </si>
-  <si>
-    <t>MEDIA_TYPES</t>
-  </si>
-  <si>
-    <t>Default entry for MEDIA_TYPES category</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>69c3298a-ce3d-47ba-a25d-cd9256fbf349</t>
-  </si>
-  <si>
-    <t>OFC_TYPES</t>
-  </si>
-  <si>
-    <t>Default entry for OFC_TYPES category</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>d3c4503c-3afb-449b-8215-abf26a3cbcbf</t>
-  </si>
-  <si>
-    <t>OFC_OWNER</t>
-  </si>
-  <si>
-    <t>Default entry for Ofc Owner category</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2f238075-a8b3-460f-9c13-3f8a74f0cd5d</t>
-  </si>
-  <si>
-    <t>OFC_PATH_TYPE</t>
-  </si>
-  <si>
-    <t>Default entry for Ofc Path Type category</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>d9fc31d3-9241-4d71-960f-181b36648ad0</t>
-  </si>
-  <si>
-    <t>SPLICE_TYPES</t>
-  </si>
-  <si>
-    <t>Default entry for Splice Types category</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2e45ebb7-8cd4-4e84-90b6-3e7b06826f4f</t>
-  </si>
-  <si>
-    <t>PORT_TYPES</t>
-  </si>
-  <si>
-    <t>Default entry for PORT_TYPES category</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>4a22543b-3e53-4fd6-97cd-27baf733c2ad</t>
-  </si>
-  <si>
-    <t>SFP_TYPES</t>
-  </si>
-  <si>
-    <t>Default entry for SFP_TYPES category</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9fb0aefd-e904-43a2-9ac9-c1cf604fab94</t>
-  </si>
-  <si>
-    <t>OFC_PATH_STATUS</t>
-  </si>
-  <si>
-    <t>Default entry for Ofc Path Statuses category</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>c973a682-b092-43f2-a438-a20835f6fd9c</t>
-  </si>
-  <si>
-    <t>INVENTORY_CATEGORY</t>
-  </si>
-  <si>
-    <t>Default entry for Inventory Category category</t>
-  </si>
-  <si>
-    <t>365143e0-2355-4603-8e7c-bc5f8f4957ad</t>
-  </si>
-  <si>
-    <t>INVENTORY_STATUS</t>
-  </si>
-  <si>
-    <t>Default entry for Inventory Status category</t>
-  </si>
-  <si>
-    <t>f56d10f7-5754-464f-b55f-6d72f4c8c3ce</t>
-  </si>
-  <si>
-    <t>LINK_TYPES</t>
-  </si>
-  <si>
-    <t>Default entry for Link types category</t>
-  </si>
-  <si>
-    <t>ccd58c46-cedb-4052-8583-4f5de7e7e5b7</t>
-  </si>
-  <si>
-    <t>Plesiochronous Digital Hierarchy</t>
-  </si>
-  <si>
-    <t>PDH</t>
-  </si>
-  <si>
-    <t>Legacy multiplexing technology in telecom.</t>
-  </si>
-  <si>
-    <t>7874595b-5650-477e-8d88-e4cedbe025e2</t>
-  </si>
-  <si>
-    <t>Converged Packet Aggregation Node</t>
-  </si>
-  <si>
-    <t>CPAN</t>
-  </si>
-  <si>
-    <t>Acts as an intermediary node between access networks (e.g., BBUs) and MAAN, ensuring seamless traffic aggregation and service hand-off.</t>
-  </si>
-  <si>
-    <t>a33ec7ee-b51c-4921-b0ec-bcf0caab3834</t>
-  </si>
-  <si>
-    <t>Multi-Access Aggregation Node</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="594">
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is System Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Ring Based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created At</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated At</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9398a2ae-851f-41b9-8f99-bef52b849ecf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAINTENANCE_AREA_TYPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFAULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for MAINTENANCE_AREA_TYPES category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93973b23-e7ea-43cc-bf9b-9eefcf26ffb5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NODE_TYPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for NODE_TYPES category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5fc1fe30-afee-4b41-b3e9-c6df0c08af21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUSINESS_AREA_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for Business Area Type category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18ad210-52e3-43b5-a0a1-6fd6533ec576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RING_TYPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for RING_TYPES category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">834e9eb5-4752-4abb-a7b9-141496457f25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYSTEM_TYPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for SYSTEM_TYPES category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acaae723-ebd1-40f8-a4ba-251d0f4c197d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDIA_TYPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for MEDIA_TYPES category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69c3298a-ce3d-47ba-a25d-cd9256fbf349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFC_TYPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for OFC_TYPES category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d3c4503c-3afb-449b-8215-abf26a3cbcbf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFC_OWNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for Ofc Owner category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f238075-a8b3-460f-9c13-3f8a74f0cd5d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFC_PATH_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for Ofc Path Type category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d9fc31d3-9241-4d71-960f-181b36648ad0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPLICE_TYPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for Splice Types category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e45ebb7-8cd4-4e84-90b6-3e7b06826f4f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORT_TYPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for PORT_TYPES category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4a22543b-3e53-4fd6-97cd-27baf733c2ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFP_TYPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for SFP_TYPES category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9fb0aefd-e904-43a2-9ac9-c1cf604fab94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFC_PATH_STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for Ofc Path Statuses category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c973a682-b092-43f2-a438-a20835f6fd9c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVENTORY_CATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for Inventory Category category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365143e0-2355-4603-8e7c-bc5f8f4957ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVENTORY_STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for Inventory Status category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f56d10f7-5754-464f-b55f-6d72f4c8c3ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINK_TYPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for Link types category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccd58c46-cedb-4052-8583-4f5de7e7e5b7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plesiochronous Digital Hierarchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legacy multiplexing technology in telecom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7874595b-5650-477e-8d88-e4cedbe025e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converged Packet Aggregation Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acts as an intermediary node between access networks (e.g., BBUs) and MAAN, ensuring seamless traffic aggregation and service hand-off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a33ec7ee-b51c-4921-b0ec-bcf0caab3834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Access Aggregation Node</t>
   </si>
   <si>
     <t xml:space="preserve">MAAN </t>
   </si>
   <si>
-    <t>Aggregates 2G/3G/4G traffic and routes it to the core network using MPLS IP technology, replacing older MPLS-TP systems for improved scalability and efficiency</t>
-  </si>
-  <si>
-    <t>0612aafd-3bac-4855-b408-e29bbbcbd37f</t>
-  </si>
-  <si>
-    <t>Joint / Splice Point</t>
-  </si>
-  <si>
-    <t>BJC</t>
-  </si>
-  <si>
-    <t>Interconnection point between two or more fiber cables</t>
-  </si>
-  <si>
-    <t>ac3a94a3-a131-4515-a7b6-9fa2cba1d97d</t>
-  </si>
-  <si>
-    <t>IP / MPLS Backbone</t>
-  </si>
-  <si>
-    <t>IPMPLS</t>
-  </si>
-  <si>
-    <t>BSNL’s IP-based core backbone for internet and enterprise traffic.</t>
-  </si>
-  <si>
-    <t>262e50f3-bef2-403c-85dc-f6d02b8a9ded</t>
-  </si>
-  <si>
-    <t>Terminal Node</t>
-  </si>
-  <si>
-    <t>TN Node</t>
-  </si>
-  <si>
-    <t>Terminal ends of an SDH link (start/end of a route) or Termination of fiber at an exchange, data center, or PoP</t>
-  </si>
-  <si>
-    <t>97102a3f-9fe3-40cd-84fe-8720d635e081</t>
-  </si>
-  <si>
-    <t>4F Armored</t>
-  </si>
-  <si>
-    <t>4F-A</t>
-  </si>
-  <si>
-    <t>Four-core steel-armored optical fiber cable for underground routes.</t>
-  </si>
-  <si>
-    <t>aea6a03e-cf73-45a4-99e1-317f8f4cfc84</t>
-  </si>
-  <si>
-    <t>4F Unarmored</t>
-  </si>
-  <si>
-    <t>4F-U</t>
-  </si>
-  <si>
-    <t>Four-core unarmored optical fiber cable (for ducts/aerial).</t>
-  </si>
-  <si>
-    <t>bef5b83a-47cc-4e95-9e36-fdb95c54de24</t>
-  </si>
-  <si>
-    <t>point_to_point</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>c0531e2c-81b2-4668-9aa2-b6edef24f7c4</t>
-  </si>
-  <si>
-    <t>ring</t>
-  </si>
-  <si>
-    <t>847cc79c-da4f-4218-80a8-136d78bda6b4</t>
-  </si>
-  <si>
-    <t>mesh</t>
-  </si>
-  <si>
-    <t>449ee05a-2f81-41a2-8d68-dcd9037b9a65</t>
-  </si>
-  <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>ad3477d5-de78-4b9f-9302-a4b5db326e9f</t>
-  </si>
-  <si>
-    <t>BSNL</t>
-  </si>
-  <si>
-    <t>bsnl</t>
-  </si>
-  <si>
-    <t>e40c2549-11ec-485d-a67a-8261fcaec68a</t>
-  </si>
-  <si>
-    <t>BBNL</t>
-  </si>
-  <si>
-    <t>bbnl</t>
-  </si>
-  <si>
-    <t>944f170d-da50-41e6-9040-dea5f7bf9dfa</t>
-  </si>
-  <si>
-    <t>Baseband Unit</t>
-  </si>
-  <si>
-    <t>BBU</t>
-  </si>
-  <si>
-    <t>BBUs are typically part of BSNL’s 4G/5G RAN (Radio Access Network), handling baseband processing for cellular signals. Their integration with CPAN/MAAN would align with BSNL’s shift toward IP-based aggregation</t>
-  </si>
-  <si>
-    <t>a54cf3ef-aabf-4c07-a611-f297ee78136e</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>A direct, one-to-one connection between two fibers.</t>
-  </si>
-  <si>
-    <t>764fb14f-c510-454c-b341-045e3337200c</t>
-  </si>
-  <si>
-    <t>t_joint</t>
-  </si>
-  <si>
-    <t>tj</t>
-  </si>
-  <si>
-    <t>A splice that connects one fiber to two or more other fibers (e.g., using a splitter)</t>
-  </si>
-  <si>
-    <t>d4e86fd7-22f0-4ffd-87d8-d360e0fac83b</t>
-  </si>
-  <si>
-    <t>SYSTEM_CAPACITY</t>
-  </si>
-  <si>
-    <t>5G (Tejas BBU): up to ~9 Gbps</t>
-  </si>
-  <si>
-    <t>5GBBU</t>
+    <t xml:space="preserve">Aggregates 2G/3G/4G traffic and routes it to the core network using MPLS IP technology, replacing older MPLS-TP systems for improved scalability and efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0612aafd-3bac-4855-b408-e29bbbcbd37f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint / Splice Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interconnection point between two or more fiber cables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ac3a94a3-a131-4515-a7b6-9fa2cba1d97d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP / MPLS Backbone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPMPLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSNL’s IP-based core backbone for internet and enterprise traffic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262e50f3-bef2-403c-85dc-f6d02b8a9ded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminal Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminal ends of an SDH link (start/end of a route) or Termination of fiber at an exchange, data center, or PoP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97102a3f-9fe3-40cd-84fe-8720d635e081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F Armored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four-core steel-armored optical fiber cable for underground routes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aea6a03e-cf73-45a4-99e1-317f8f4cfc84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F Unarmored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four-core unarmored optical fiber cable (for ducts/aerial).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bef5b83a-47cc-4e95-9e36-fdb95c54de24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">point_to_point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c0531e2c-81b2-4668-9aa2-b6edef24f7c4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">847cc79c-da4f-4218-80a8-136d78bda6b4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">449ee05a-2f81-41a2-8d68-dcd9037b9a65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad3477d5-de78-4b9f-9302-a4b5db326e9f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSNL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bsnl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e40c2549-11ec-485d-a67a-8261fcaec68a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBNL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbnl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">944f170d-da50-41e6-9040-dea5f7bf9dfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseband Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBUs are typically part of BSNL’s 4G/5G RAN (Radio Access Network), handling baseband processing for cellular signals. Their integration with CPAN/MAAN would align with BSNL’s shift toward IP-based aggregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a54cf3ef-aabf-4c07-a611-f297ee78136e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A direct, one-to-one connection between two fibers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">764fb14f-c510-454c-b341-045e3337200c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t_joint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A splice that connects one fiber to two or more other fibers (e.g., using a splitter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d4e86fd7-22f0-4ffd-87d8-d360e0fac83b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYSTEM_CAPACITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5G (Tejas BBU): up to ~9 Gbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5GBBU</t>
   </si>
   <si>
     <t xml:space="preserve">BSNL 5G Upgrade (Tejas BBU): up to ~9 Gbps
 (with 15 cells × 100 MHz)</t>
   </si>
   <si>
-    <t>a1396206-9345-4b65-b7cb-b079e9e2731e</t>
-  </si>
-  <si>
-    <t>cross</t>
-  </si>
-  <si>
-    <t>crs</t>
-  </si>
-  <si>
-    <t>A connection where fibers are intentionally crossed (e.g., fiber 1 to fiber 2).</t>
-  </si>
-  <si>
-    <t>d6d2e8dc-eb8b-4dde-ae35-b51e66223d89</t>
-  </si>
-  <si>
-    <t>2F Armored</t>
-  </si>
-  <si>
-    <t>2F-A</t>
-  </si>
-  <si>
-    <t>Two-core steel-armored optical fiber cable for underground routes.</t>
-  </si>
-  <si>
-    <t>72068662-ba21-4879-b1c3-b76e5f31d63b</t>
-  </si>
-  <si>
-    <t>Coaxial Cable</t>
-  </si>
-  <si>
-    <t>COAX</t>
-  </si>
-  <si>
-    <t>Cable TV and RF applications.</t>
-  </si>
-  <si>
-    <t>3367a4e6-16e0-40d2-b7c9-7f21c96f4dc6</t>
-  </si>
-  <si>
-    <t>National Long Distance</t>
-  </si>
-  <si>
-    <t>NLD</t>
-  </si>
-  <si>
-    <t>Domestic long-distance telecom service.</t>
-  </si>
-  <si>
-    <t>3be43529-ead7-4052-9134-5d7df9d3d800</t>
-  </si>
-  <si>
-    <t>Retail Fixed Line</t>
-  </si>
-  <si>
-    <t>RETAIL</t>
-  </si>
-  <si>
-    <t>Landline and basic voice services.</t>
-  </si>
-  <si>
-    <t>12e0d487-c11c-4432-89f4-3347070046ed</t>
-  </si>
-  <si>
-    <t>Mobile Services</t>
-  </si>
-  <si>
-    <t>MOB</t>
-  </si>
-  <si>
-    <t>BSNL GSM/4G/5G mobile offerings.</t>
-  </si>
-  <si>
-    <t>d7600972-15b4-40e8-959c-56e21df24adf</t>
-  </si>
-  <si>
-    <t>International Long Distance</t>
-  </si>
-  <si>
-    <t>ILD</t>
-  </si>
-  <si>
-    <t>International telecom connectivity.</t>
-  </si>
-  <si>
-    <t>f4747aaa-75f3-4ac0-b950-57569e208189</t>
-  </si>
-  <si>
-    <t>IP Television</t>
-  </si>
-  <si>
-    <t>IPTV</t>
-  </si>
-  <si>
-    <t>Video streaming and IPTV services.</t>
-  </si>
-  <si>
-    <t>7be2cd28-a794-4f98-b2aa-31ea6c1c6edc</t>
-  </si>
-  <si>
-    <t>STM-1 Port</t>
-  </si>
-  <si>
-    <t>STM1</t>
-  </si>
-  <si>
-    <t>155 Mbps optical interface in SDH.</t>
-  </si>
-  <si>
-    <t>e3c44b09-c5d7-457c-8c50-5a06efff1262</t>
-  </si>
-  <si>
-    <t>Unshielded Twisted Pair</t>
-  </si>
-  <si>
-    <t>UTP</t>
-  </si>
-  <si>
-    <t>Copper cable for telecom and data.</t>
-  </si>
-  <si>
-    <t>96a1fb7a-2603-483b-8088-2d95755bda08</t>
-  </si>
-  <si>
-    <t>Microwave Link</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Wireless line-of-sight telecom link.</t>
-  </si>
-  <si>
-    <t>838ed57e-44bf-44dc-907f-e6d8136c8ab2</t>
-  </si>
-  <si>
-    <t>Radio Frequency Link</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>Wireless RF link for telecom.</t>
-  </si>
-  <si>
-    <t>44069fb0-fbe6-4836-ac87-083ab7f44880</t>
-  </si>
-  <si>
-    <t>Optical Fiber</t>
-  </si>
-  <si>
-    <t>FIBER</t>
-  </si>
-  <si>
-    <t>Fiber optic communication medium.</t>
-  </si>
-  <si>
-    <t>0c188ba2-689a-4bdc-9848-3b1112516f6b</t>
-  </si>
-  <si>
-    <t>Satellite Link</t>
-  </si>
-  <si>
-    <t>SAT</t>
-  </si>
-  <si>
-    <t>Satellite-based telecom connection.</t>
-  </si>
-  <si>
-    <t>daef1801-b782-465e-a973-a9e4358e2e92</t>
-  </si>
-  <si>
-    <t>Very High Frequency Link</t>
-  </si>
-  <si>
-    <t>VHF</t>
-  </si>
-  <si>
-    <t>Special frequency-based communication link.</t>
-  </si>
-  <si>
-    <t>a6e36125-cd80-45a1-99f5-ae4b445a6880</t>
-  </si>
-  <si>
-    <t>Telephone Exchange (Exch.)</t>
-  </si>
-  <si>
-    <t>EXCH</t>
-  </si>
-  <si>
-    <t>Central switching facility that connects subscriber lines and trunk links.</t>
-  </si>
-  <si>
-    <t>d749692f-5147-49b5-b1cf-8be443ad2de2</t>
-  </si>
-  <si>
-    <t>BTS (running over radiolink)</t>
-  </si>
-  <si>
-    <t>BTS-RL</t>
-  </si>
-  <si>
-    <t>BTS whose backhaul is microwave / radiolink (non-fiber backhaul).</t>
-  </si>
-  <si>
-    <t>6458a347-e80c-4a62-9357-551487a07e3a</t>
-  </si>
-  <si>
-    <t>Customer Premises</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>Subscriber location (home/business) — customer termination equipment/site.</t>
-  </si>
-  <si>
-    <t>de9ccacb-2080-400e-8c57-2e2cf729f724</t>
-  </si>
-  <si>
-    <t>Gram Panchayat</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>Rural/local community aggregation point for last-mile access.</t>
-  </si>
-  <si>
-    <t>ad56dd60-f014-464b-84b9-a090ed843fab</t>
-  </si>
-  <si>
-    <t>Backhaul Hub / Block HQ</t>
-  </si>
-  <si>
-    <t>BHQ</t>
-  </si>
-  <si>
-    <t>Aggregation/backhaul hub or branch headquarters for operations &amp; routing.</t>
-  </si>
-  <si>
-    <t>95f63633-fd4e-4018-b2f0-dea8ad3a8494</t>
-  </si>
-  <si>
-    <t>Metro Access Aggregation Node</t>
-  </si>
-  <si>
-    <t>MAAN</t>
-  </si>
-  <si>
-    <t>Aggregation node used in metro rings before reaching core/backbone.</t>
-  </si>
-  <si>
-    <t>4d8318a9-4901-40f5-b50c-2f8edad7796d</t>
-  </si>
-  <si>
-    <t>2F Unarmored</t>
-  </si>
-  <si>
-    <t>2F-U</t>
-  </si>
-  <si>
-    <t>Two-core unarmored optical fiber cable (for ducts/aerial).</t>
-  </si>
-  <si>
-    <t>04bb13be-c2c6-47dd-a5f3-013f37c08719</t>
-  </si>
-  <si>
-    <t>Fiber Distribution Hub (FDH)</t>
-  </si>
-  <si>
-    <t>FDH</t>
-  </si>
-  <si>
-    <t>Street/field cabinet that distributes fibers to subscribers (PON splitters).</t>
-  </si>
-  <si>
-    <t>96ff54ab-c96f-470e-92d6-2f5780438e81</t>
-  </si>
-  <si>
-    <t>Distribution Point / Street Cabinet</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>Local distribution cabinet connecting feeder to drop cables.</t>
-  </si>
-  <si>
-    <t>20062f91-1de9-43a9-aaae-a9eee082d0e2</t>
-  </si>
-  <si>
-    <t>multiplexer</t>
-  </si>
-  <si>
-    <t>MUX</t>
-  </si>
-  <si>
-    <t>Splits a multiplexed signal into its components.</t>
-  </si>
-  <si>
-    <t>5207d6b0-10ff-4c8d-b5e0-0ce9cc2e5230</t>
-  </si>
-  <si>
-    <t>Compact Passive Access Node</t>
-  </si>
-  <si>
-    <t>CPAN Node</t>
-  </si>
-  <si>
-    <t>Compact Passive Access Node (used in access networks for broadband/FTTH aggregation)</t>
-  </si>
-  <si>
-    <t>c3c10305-215a-4efa-8770-2d8846f4e888</t>
-  </si>
-  <si>
-    <t>Digital Cross-Connect</t>
-  </si>
-  <si>
-    <t>DXC Node</t>
-  </si>
-  <si>
-    <t>Junction site with large cross-connections</t>
-  </si>
-  <si>
-    <t>0966c005-3306-4a7a-9933-45dd1d8e91b4</t>
-  </si>
-  <si>
-    <t>Optical Amplifier Node</t>
-  </si>
-  <si>
-    <t>OAN Node</t>
-  </si>
-  <si>
-    <t>If the SDH shelf is paired with amplifier equipment for boosting signal only.</t>
-  </si>
-  <si>
-    <t>df4fb383-2fcf-4171-9571-0566863778af</t>
-  </si>
-  <si>
-    <t>Regenerator</t>
-  </si>
-  <si>
-    <t>Regenerator Node</t>
-  </si>
-  <si>
-    <t>For old SDH without optical amplification.</t>
-  </si>
-  <si>
-    <t>aad2da41-7496-4048-a004-a6958ec4ff79</t>
-  </si>
-  <si>
-    <t>6F Unarmored</t>
-  </si>
-  <si>
-    <t>6F-U</t>
-  </si>
-  <si>
-    <t>Six-core unarmored optical fiber cable (for ducts/aerial).</t>
-  </si>
-  <si>
-    <t>e137552b-9ae2-442b-bcc2-c435d7d64ba1</t>
-  </si>
-  <si>
-    <t>12F Unarmored</t>
-  </si>
-  <si>
-    <t>12F-U</t>
-  </si>
-  <si>
-    <t>Twelve-core unarmored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>f45e7454-2b12-4607-886b-f463b56fab98</t>
-  </si>
-  <si>
-    <t>Base Transceiver Station</t>
-  </si>
-  <si>
-    <t>BTS</t>
-  </si>
-  <si>
-    <t>Mobile radio site / cell tower serving a cell area.</t>
-  </si>
-  <si>
-    <t>3e347a50-468a-4006-b0d2-e1ba90f461ea</t>
-  </si>
-  <si>
-    <t>Broadband Services</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>BSNL FTTH and DSL broadband.</t>
-  </si>
-  <si>
-    <t>581b175e-98f8-4768-b1be-26c871a8335b</t>
-  </si>
-  <si>
-    <t>Enterprise Services</t>
-  </si>
-  <si>
-    <t>ENT</t>
-  </si>
-  <si>
-    <t>Leased lines, MPLS VPN for corporate customers.</t>
-  </si>
-  <si>
-    <t>84e8ba18-eedc-4eae-aaa4-e6a82400849d</t>
-  </si>
-  <si>
-    <t>24F Unarmored</t>
-  </si>
-  <si>
-    <t>24F-U</t>
-  </si>
-  <si>
-    <t>Twenty-four core unarmored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>2ecb77f4-d9ff-4300-ab99-6118ad220ce1</t>
-  </si>
-  <si>
-    <t>48F Unarmored</t>
-  </si>
-  <si>
-    <t>48F-U</t>
-  </si>
-  <si>
-    <t>Forty-eight core unarmored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>9735f097-e10e-40e6-ba15-b2dee2e76b80</t>
-  </si>
-  <si>
-    <t>96F Unarmored</t>
-  </si>
-  <si>
-    <t>96F-U</t>
-  </si>
-  <si>
-    <t>Ninety-six core unarmored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>53df8996-fb6a-4257-afc8-a5269f23b585</t>
-  </si>
-  <si>
-    <t>288F Unarmored</t>
-  </si>
-  <si>
-    <t>288F-U</t>
-  </si>
-  <si>
-    <t>Two-hundred eighty-eight core unarmored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>9bb020d2-3cdd-441e-b322-949df3058ebd</t>
-  </si>
-  <si>
-    <t>6F Armored</t>
-  </si>
-  <si>
-    <t>6F-A</t>
-  </si>
-  <si>
-    <t>Six-core steel-armored optical fiber cable for underground routes.</t>
-  </si>
-  <si>
-    <t>315fc414-ba42-477f-afa6-161df09600c3</t>
-  </si>
-  <si>
-    <t>12F Armored</t>
-  </si>
-  <si>
-    <t>12F-A</t>
-  </si>
-  <si>
-    <t>Twelve-core steel-armored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>488275fc-fe52-45bd-95df-3fbed2125c33</t>
-  </si>
-  <si>
-    <t>24F Armored</t>
-  </si>
-  <si>
-    <t>24F-A</t>
-  </si>
-  <si>
-    <t>Twenty-four core steel-armored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>1b3fc06b-9948-4232-8a2c-caec58f780aa</t>
-  </si>
-  <si>
-    <t>48F Armored</t>
-  </si>
-  <si>
-    <t>48F-A</t>
-  </si>
-  <si>
-    <t>Forty-eight core steel-armored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>e8c51bba-9f19-4173-9aa2-5ef523df270c</t>
-  </si>
-  <si>
-    <t>96F Armored</t>
-  </si>
-  <si>
-    <t>96F-A</t>
-  </si>
-  <si>
-    <t>Ninety-six core steel-armored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>a946aab1-ab85-4619-bd16-49a8a951fd85</t>
-  </si>
-  <si>
-    <t>288F Armored</t>
-  </si>
-  <si>
-    <t>288F-A</t>
-  </si>
-  <si>
-    <t>Two-hundred eighty-eight core steel-armored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>3de66615-3963-4edc-98ad-a2f08eda5417</t>
-  </si>
-  <si>
-    <t>STM-16 Port</t>
-  </si>
-  <si>
-    <t>STM16</t>
-  </si>
-  <si>
-    <t>2.5 Gbps optical interface.</t>
-  </si>
-  <si>
-    <t>14888b49-2f7d-4dbd-93c2-b19dcafbcd8c</t>
-  </si>
-  <si>
-    <t>Fast Ethernet Port</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>100 Mbps Ethernet.</t>
-  </si>
-  <si>
-    <t>6c9460cb-22dd-4457-82e3-0ccebe0f3afc</t>
-  </si>
-  <si>
-    <t>10 Gigabit Ethernet Port</t>
-  </si>
-  <si>
-    <t>10GE</t>
-  </si>
-  <si>
-    <t>High-capacity Ethernet port.</t>
-  </si>
-  <si>
-    <t>72c229f6-2919-41cc-b5cc-911779aa9dc3</t>
-  </si>
-  <si>
-    <t>Circle</t>
-  </si>
-  <si>
-    <t>CIRCLE</t>
-  </si>
-  <si>
-    <t>State/UT-level operational unit.Example: West Bengal Circle, Kerala Circle, Tamil Nadu Circle.Each Circle contains multiple SSAs.</t>
-  </si>
-  <si>
-    <t>a786b612-5407-4517-a320-99a210a1ba13</t>
-  </si>
-  <si>
-    <t>SSA (Secondary Switching Area)</t>
-  </si>
-  <si>
-    <t>SSA</t>
-  </si>
-  <si>
-    <t>District-level telecom maintenance unit.Example: Kolkata SSA, Malda SSA.Each SSA contains multiple Divisions/Sub-Divisions.</t>
-  </si>
-  <si>
-    <t>6ae7c8f8-7272-4a7f-a7c3-0fa2534bb2eb</t>
-  </si>
-  <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t>DIV</t>
-  </si>
-  <si>
-    <t>Smaller operational units inside an SSA for field maintenance.Often responsible for a cluster of exchanges or optical routes.</t>
-  </si>
-  <si>
-    <t>d2d2f881-26d2-4942-8347-7c0d9b9acbbf</t>
-  </si>
-  <si>
-    <t>Sub-Division</t>
-  </si>
-  <si>
-    <t>SUBDIV</t>
-  </si>
-  <si>
-    <t>Smaller operational units inside an DIVISION for field maintenance.</t>
-  </si>
-  <si>
-    <t>f50ef056-24c8-4287-b9c0-99e91af68c59</t>
-  </si>
-  <si>
-    <t>100 Gigabit Ethernet Port</t>
-  </si>
-  <si>
-    <t>100GE</t>
-  </si>
-  <si>
-    <t>Ultra high-capacity Ethernet port.</t>
-  </si>
-  <si>
-    <t>901fa4cc-a2b6-4404-a578-09da1740868f</t>
-  </si>
-  <si>
-    <t>STM-4 Port</t>
-  </si>
-  <si>
-    <t>STM4</t>
-  </si>
-  <si>
-    <t>622 Mbps optical interface.</t>
-  </si>
-  <si>
-    <t>f4c1f4d0-e9d0-426d-9fc1-ec34e3b80984</t>
-  </si>
-  <si>
-    <t>STM-64 Port</t>
-  </si>
-  <si>
-    <t>STM64</t>
-  </si>
-  <si>
-    <t>10 Gbps optical interface.</t>
-  </si>
-  <si>
-    <t>4b86eede-d502-4368-85c1-8e68d9b50282</t>
-  </si>
-  <si>
-    <t>Gigabit Ethernet Port</t>
-  </si>
-  <si>
-    <t>GE(O)</t>
-  </si>
-  <si>
-    <t>1 Gbps Ethernet.</t>
-  </si>
-  <si>
-    <t>58129d20-5fcb-4171-b641-80c6aa08e2ba</t>
-  </si>
-  <si>
-    <t>40 Gigabit Ethernet Port</t>
-  </si>
-  <si>
-    <t>40GE</t>
-  </si>
-  <si>
-    <t>Very high-capacity Ethernet port.</t>
-  </si>
-  <si>
-    <t>cc3cebe7-5419-4806-8d3a-6405cf00ecbb</t>
-  </si>
-  <si>
-    <t>Bidirectional Line Switched Ring</t>
-  </si>
-  <si>
-    <t>BLSR</t>
-  </si>
-  <si>
-    <t>SONET/SDH protection switching topology.</t>
-  </si>
-  <si>
-    <t>18429ead-ad6a-46aa-8155-2b418cb5def5</t>
-  </si>
-  <si>
-    <t>Mesh Network Topology</t>
-  </si>
-  <si>
-    <t>MESH</t>
-  </si>
-  <si>
-    <t>Multiple interlinked nodes without a strict ring.</t>
-  </si>
-  <si>
-    <t>2970fab5-24ed-47d3-b0c1-42aca2d11c79</t>
-  </si>
-  <si>
-    <t>Linear</t>
-  </si>
-  <si>
-    <t>LNR</t>
-  </si>
-  <si>
-    <t>Linear configuration.</t>
-  </si>
-  <si>
-    <t>7f05c55b-9306-46b1-bb96-6e2e481a43fd</t>
-  </si>
-  <si>
-    <t>Unidirectional Path Switched Ring</t>
-  </si>
-  <si>
-    <t>UPSR</t>
-  </si>
-  <si>
-    <t>Ring topology with unidirectional traffic flow.</t>
-  </si>
-  <si>
-    <t>0dfc3ef0-d661-458a-b0b7-2b8b0975b6dd</t>
-  </si>
-  <si>
-    <t>Point-to-Point Ring</t>
-  </si>
-  <si>
-    <t>PTPR</t>
-  </si>
-  <si>
-    <t>Simplified two-node ring configuration.</t>
-  </si>
-  <si>
-    <t>006bbcae-b141-416f-9f3a-8ca152190df9</t>
-  </si>
-  <si>
-    <t>Coarse Wavelength Division Multiplex SFP</t>
-  </si>
-  <si>
-    <t>CWDMSFP</t>
-  </si>
-  <si>
-    <t>CWDM optical module.</t>
-  </si>
-  <si>
-    <t>1c5673a9-1fab-4d4c-baa5-ceb73b1993dd</t>
-  </si>
-  <si>
-    <t>Bidirectional SFP</t>
-  </si>
-  <si>
-    <t>BIDISFP</t>
-  </si>
-  <si>
-    <t>Single fiber bi-directional optical module.</t>
-  </si>
-  <si>
-    <t>fc077b05-1bfc-414c-9549-13b0f6d3e230</t>
-  </si>
-  <si>
-    <t>Next Generation SDH</t>
-  </si>
-  <si>
-    <t>NGSDH</t>
-  </si>
-  <si>
-    <t>Enhanced SDH with Ethernet over SDH support.</t>
-  </si>
-  <si>
-    <t>f6cdce1d-fe11-4d40-8866-c509307f6150</t>
-  </si>
-  <si>
-    <t>Transmission Nodes</t>
-  </si>
-  <si>
-    <t>TX Node</t>
-  </si>
-  <si>
-    <t>Intermediate add/drop site</t>
-  </si>
-  <si>
-    <t>3e555c07-b3c9-4c38-ba5a-b5a0476edc55</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>ZONE</t>
-  </si>
-  <si>
-    <t>The biggest operational region in BSNL.Example: East Zone, South Zone, North Zone, West Zone.Each Zone contains multiple Circles.</t>
-  </si>
-  <si>
-    <t>14b6413a-2b8a-4afa-a3a7-6d6a6deb7d43</t>
-  </si>
-  <si>
-    <t>Specialized Centers</t>
-  </si>
-  <si>
-    <t>SPECIALIZED</t>
-  </si>
-  <si>
-    <t>parallel structure.Like NOC (Network Operations Center) – Centralized monitoring hub, MSC (Mobile Switching Center) – For mobile network control, TXM Units – Transmission maintenance teams.</t>
-  </si>
-  <si>
-    <t>3a78206e-3909-4008-99f5-7d8a3103dc7e</t>
-  </si>
-  <si>
-    <t>BTS Microwave Link</t>
-  </si>
-  <si>
-    <t>MWL</t>
-  </si>
-  <si>
-    <t>Term for BTS site radio links</t>
-  </si>
-  <si>
-    <t>f5b73822-9e97-4926-a4d1-4f0dfbbd72d0</t>
-  </si>
-  <si>
-    <t>Office Chair</t>
-  </si>
-  <si>
-    <t>och</t>
-  </si>
-  <si>
-    <t>4aec2199-d02e-42cf-af92-7fec40e82524</t>
-  </si>
-  <si>
-    <t>Working</t>
-  </si>
-  <si>
-    <t>wor</t>
-  </si>
-  <si>
-    <t>6ef578b6-af4d-48c8-a68d-910258f5d8ce</t>
-  </si>
-  <si>
-    <t>Electrical</t>
-  </si>
-  <si>
-    <t>ELEC</t>
-  </si>
-  <si>
-    <t>Medium: Cat5e/Cat6, Connector: RJ-45</t>
-  </si>
-  <si>
-    <t>0570b1bf-ddf8-4a7a-b125-2e4276120f08</t>
-  </si>
-  <si>
-    <t>Copper pair</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>Connector: RJ-48C</t>
-  </si>
-  <si>
-    <t>983fd25b-20e8-4aee-9cf9-7e286b7813da</t>
-  </si>
-  <si>
-    <t>CPAN DL</t>
-  </si>
-  <si>
-    <t>DL</t>
-  </si>
-  <si>
-    <t>bad8fb63-8d85-4ea3-ba41-7151076cd0ef</t>
-  </si>
-  <si>
-    <t>CPAN MAAN Link</t>
-  </si>
-  <si>
-    <t>CPAN_MAAN</t>
-  </si>
-  <si>
-    <t>3a549f97-6c19-409c-b136-3b670c9d0009</t>
-  </si>
-  <si>
-    <t>LEASED CKT</t>
-  </si>
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
-    <t>30b95289-bc6c-4584-a51d-800e3b6356c9</t>
-  </si>
-  <si>
-    <t>BTS 2G</t>
-  </si>
-  <si>
-    <t>2G</t>
-  </si>
-  <si>
-    <t>35b215a3-75cc-4a95-859f-85a5414fcced</t>
-  </si>
-  <si>
-    <t>BTS 3G</t>
-  </si>
-  <si>
-    <t>3G</t>
-  </si>
-  <si>
-    <t>6bcd3b56-60af-4378-93b2-87c0aee6f0e6</t>
-  </si>
-  <si>
-    <t>MAAN TL</t>
-  </si>
-  <si>
-    <t>TL</t>
-  </si>
-  <si>
-    <t>b34e5c12-9557-4a9d-a901-6e2ab561dcc0</t>
-  </si>
-  <si>
-    <t>OLT</t>
-  </si>
-  <si>
-    <t>f9f13567-b5ff-4128-9e8f-8b1ce164413d</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>The logical path is active and in use.</t>
-  </si>
-  <si>
-    <t>835d60a8-4ce3-4e92-a9c3-f25235b9ac70</t>
-  </si>
-  <si>
-    <t>decommissioned</t>
-  </si>
-  <si>
-    <t>DECOM</t>
-  </si>
-  <si>
-    <t>The logical path has been decommissioned.</t>
-  </si>
-  <si>
-    <t>54d8861d-0df4-4eb6-ab79-21c5843fd12c</t>
-  </si>
-  <si>
-    <t>inactive</t>
-  </si>
-  <si>
-    <t>INACTIVE</t>
-  </si>
-  <si>
-    <t>The logical path is not currently active.</t>
-  </si>
-  <si>
-    <t>d1afa648-27ba-4697-93ef-73ccd6b594ba</t>
-  </si>
-  <si>
-    <t>planned</t>
-  </si>
-  <si>
-    <t>PLANNED</t>
-  </si>
-  <si>
-    <t>The logical path is planned but not yet provisioned.</t>
-  </si>
-  <si>
-    <t>4828d529-7f1b-489e-a444-a43a495d948b</t>
-  </si>
-  <si>
-    <t>Default entry for System Capacity category</t>
-  </si>
-  <si>
-    <t>3830d349-f4ce-4391-9796-111cbf942a6f</t>
-  </si>
-  <si>
-    <t>4G (Tejas BBU): ~0.6 to 1.3 Gbps</t>
-  </si>
-  <si>
-    <t>4GBBU</t>
-  </si>
-  <si>
-    <t>BSNL 4G (Tejas BBU): ~0.6 to 1.3 Gbps total  (depending on 10 MHz or 20 MHz LTE)</t>
-  </si>
-  <si>
-    <t>2a4ccaad-c8eb-4129-abb6-90da45f4bf08</t>
-  </si>
-  <si>
-    <t>9.953 Gbps(STM-64)</t>
-  </si>
-  <si>
-    <t>10G</t>
-  </si>
-  <si>
-    <t>STM-64. Usable for IP (approx)	~8.4 Gbps</t>
-  </si>
-  <si>
-    <t>2efeaec3-25db-4e92-bb1b-0ce370547cd6</t>
-  </si>
-  <si>
-    <t>300 Gbps (B4)</t>
-  </si>
-  <si>
-    <t>300G</t>
-  </si>
-  <si>
-    <t>B4 (300 Gbps): These are high-capacity pizza-box MAAN routers. They have both 100G and 10G ports. This makes them suitable for very high aggregation — e.g., many access rings → core.</t>
-  </si>
-  <si>
-    <t>3beb3ea2-55a4-48da-a7fa-f7c9ccf7de79</t>
-  </si>
-  <si>
-    <t>40 Gbps (CPAN B1)</t>
-  </si>
-  <si>
-    <t>40G</t>
+    <t xml:space="preserve">a1396206-9345-4b65-b7cb-b079e9e2731e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A connection where fibers are intentionally crossed (e.g., fiber 1 to fiber 2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d6d2e8dc-eb8b-4dde-ae35-b51e66223d89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F Armored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two-core steel-armored optical fiber cable for underground routes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72068662-ba21-4879-b1c3-b76e5f31d63b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coaxial Cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable TV and RF applications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3367a4e6-16e0-40d2-b7c9-7f21c96f4dc6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Long Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic long-distance telecom service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3be43529-ead7-4052-9134-5d7df9d3d800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retail Fixed Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landline and basic voice services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12e0d487-c11c-4432-89f4-3347070046ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSNL GSM/4G/5G mobile offerings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d7600972-15b4-40e8-959c-56e21df24adf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Long Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International telecom connectivity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4747aaa-75f3-4ac0-b950-57569e208189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP Television</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPTV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video streaming and IPTV services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7be2cd28-a794-4f98-b2aa-31ea6c1c6edc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM-1 Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155 Mbps optical interface in SDH.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e3c44b09-c5d7-457c-8c50-5a06efff1262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unshielded Twisted Pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper cable for telecom and data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96a1fb7a-2603-483b-8088-2d95755bda08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microwave Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireless line-of-sight telecom link.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">838ed57e-44bf-44dc-907f-e6d8136c8ab2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radio Frequency Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireless RF link for telecom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44069fb0-fbe6-4836-ac87-083ab7f44880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optical Fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiber optic communication medium.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0c188ba2-689a-4bdc-9848-3b1112516f6b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satellite Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satellite-based telecom connection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daef1801-b782-465e-a973-a9e4358e2e92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very High Frequency Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VHF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special frequency-based communication link.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a6e36125-cd80-45a1-99f5-ae4b445a6880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telephone Exchange (Exch.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central switching facility that connects subscriber lines and trunk links.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d749692f-5147-49b5-b1cf-8be443ad2de2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS (running over radiolink)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS-RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS whose backhaul is microwave / radiolink (non-fiber backhaul).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6458a347-e80c-4a62-9357-551487a07e3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Premises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subscriber location (home/business) — customer termination equipment/site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de9ccacb-2080-400e-8c57-2e2cf729f724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gram Panchayat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rural/local community aggregation point for last-mile access.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad56dd60-f014-464b-84b9-a090ed843fab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backhaul Hub / Block HQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregation/backhaul hub or branch headquarters for operations &amp; routing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95f63633-fd4e-4018-b2f0-dea8ad3a8494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metro Access Aggregation Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregation node used in metro rings before reaching core/backbone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4d8318a9-4901-40f5-b50c-2f8edad7796d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F Unarmored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two-core unarmored optical fiber cable (for ducts/aerial).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04bb13be-c2c6-47dd-a5f3-013f37c08719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiber Distribution Hub (FDH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street/field cabinet that distributes fibers to subscribers (PON splitters).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96ff54ab-c96f-470e-92d6-2f5780438e81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution Point / Street Cabinet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local distribution cabinet connecting feeder to drop cables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20062f91-1de9-43a9-aaae-a9eee082d0e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiplexer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splits a multiplexed signal into its components.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5207d6b0-10ff-4c8d-b5e0-0ce9cc2e5230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compact Passive Access Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAN Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compact Passive Access Node (used in access networks for broadband/FTTH aggregation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c3c10305-215a-4efa-8770-2d8846f4e888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Cross-Connect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DXC Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junction site with large cross-connections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0966c005-3306-4a7a-9933-45dd1d8e91b4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optical Amplifier Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAN Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the SDH shelf is paired with amplifier equipment for boosting signal only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df4fb383-2fcf-4171-9571-0566863778af</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regenerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regenerator Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For old SDH without optical amplification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aad2da41-7496-4048-a004-a6958ec4ff79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6F Unarmored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6F-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Six-core unarmored optical fiber cable (for ducts/aerial).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e137552b-9ae2-442b-bcc2-c435d7d64ba1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12F Unarmored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12F-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twelve-core unarmored optical fiber cable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f45e7454-2b12-4607-886b-f463b56fab98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Transceiver Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile radio site / cell tower serving a cell area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3e347a50-468a-4006-b0d2-e1ba90f461ea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broadband Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSNL FTTH and DSL broadband.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">581b175e-98f8-4768-b1be-26c871a8335b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leased lines, MPLS VPN for corporate customers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84e8ba18-eedc-4eae-aaa4-e6a82400849d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24F Unarmored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24F-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty-four core unarmored optical fiber cable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ecb77f4-d9ff-4300-ab99-6118ad220ce1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48F Unarmored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48F-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forty-eight core unarmored optical fiber cable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9735f097-e10e-40e6-ba15-b2dee2e76b80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96F Unarmored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96F-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninety-six core unarmored optical fiber cable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53df8996-fb6a-4257-afc8-a5269f23b585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288F Unarmored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288F-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two-hundred eighty-eight core unarmored optical fiber cable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9bb020d2-3cdd-441e-b322-949df3058ebd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6F Armored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6F-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Six-core steel-armored optical fiber cable for underground routes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315fc414-ba42-477f-afa6-161df09600c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12F Armored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12F-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twelve-core steel-armored optical fiber cable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">488275fc-fe52-45bd-95df-3fbed2125c33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24F Armored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24F-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty-four core steel-armored optical fiber cable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1b3fc06b-9948-4232-8a2c-caec58f780aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48F Armored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48F-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forty-eight core steel-armored optical fiber cable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e8c51bba-9f19-4173-9aa2-5ef523df270c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96F Armored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96F-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninety-six core steel-armored optical fiber cable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a946aab1-ab85-4619-bd16-49a8a951fd85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288F Armored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288F-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two-hundred eighty-eight core steel-armored optical fiber cable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3de66615-3963-4edc-98ad-a2f08eda5417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM-16 Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5 Gbps optical interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14888b49-2f7d-4dbd-93c2-b19dcafbcd8c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast Ethernet Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Mbps Ethernet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6c9460cb-22dd-4457-82e3-0ccebe0f3afc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Gigabit Ethernet Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-capacity Ethernet port.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72c229f6-2919-41cc-b5cc-911779aa9dc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIRCLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State/UT-level operational unit.Example: West Bengal Circle, Kerala Circle, Tamil Nadu Circle.Each Circle contains multiple SSAs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a786b612-5407-4517-a320-99a210a1ba13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSA (Secondary Switching Area)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">District-level telecom maintenance unit.Example: Kolkata SSA, Malda SSA.Each SSA contains multiple Divisions/Sub-Divisions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6ae7c8f8-7272-4a7f-a7c3-0fa2534bb2eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smaller operational units inside an SSA for field maintenance.Often responsible for a cluster of exchanges or optical routes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d2d2f881-26d2-4942-8347-7c0d9b9acbbf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBDIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smaller operational units inside an DIVISION for field maintenance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f50ef056-24c8-4287-b9c0-99e91af68c59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Gigabit Ethernet Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultra high-capacity Ethernet port.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">901fa4cc-a2b6-4404-a578-09da1740868f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM-4 Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">622 Mbps optical interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4c1f4d0-e9d0-426d-9fc1-ec34e3b80984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM-64 Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Gbps optical interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b86eede-d502-4368-85c1-8e68d9b50282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigabit Ethernet Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE(O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Gbps Ethernet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58129d20-5fcb-4171-b641-80c6aa08e2ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 Gigabit Ethernet Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very high-capacity Ethernet port.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc3cebe7-5419-4806-8d3a-6405cf00ecbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bidirectional Line Switched Ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONET/SDH protection switching topology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18429ead-ad6a-46aa-8155-2b418cb5def5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesh Network Topology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple interlinked nodes without a strict ring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2970fab5-24ed-47d3-b0c1-42aca2d11c79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear configuration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7f05c55b-9306-46b1-bb96-6e2e481a43fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidirectional Path Switched Ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring topology with unidirectional traffic flow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0dfc3ef0-d661-458a-b0b7-2b8b0975b6dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point-to-Point Ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simplified two-node ring configuration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">006bbcae-b141-416f-9f3a-8ca152190df9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Wavelength Division Multiplex SFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWDMSFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWDM optical module.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1c5673a9-1fab-4d4c-baa5-ceb73b1993dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bidirectional SFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIDISFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single fiber bi-directional optical module.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc077b05-1bfc-414c-9549-13b0f6d3e230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Generation SDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGSDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced SDH with Ethernet over SDH support.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f6cdce1d-fe11-4d40-8866-c509307f6150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmission Nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intermediate add/drop site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3e555c07-b3c9-4c38-ba5a-b5a0476edc55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The biggest operational region in BSNL.Example: East Zone, South Zone, North Zone, West Zone.Each Zone contains multiple Circles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14b6413a-2b8a-4afa-a3a7-6d6a6deb7d43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialized Centers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPECIALIZED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parallel structure.Like NOC (Network Operations Center) – Centralized monitoring hub, MSC (Mobile Switching Center) – For mobile network control, TXM Units – Transmission maintenance teams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3a78206e-3909-4008-99f5-7d8a3103dc7e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS Microwave Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MWL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term for BTS site radio links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f5b73822-9e97-4926-a4d1-4f0dfbbd72d0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office Chair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">och</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4aec2199-d02e-42cf-af92-7fec40e82524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6ef578b6-af4d-48c8-a68d-910258f5d8ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium: Cat5e/Cat6, Connector: RJ-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0570b1bf-ddf8-4a7a-b125-2e4276120f08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector: RJ-48C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">983fd25b-20e8-4aee-9cf9-7e286b7813da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAN DL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bad8fb63-8d85-4ea3-ba41-7151076cd0ef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAN MAAN Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAN_MAAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3a549f97-6c19-409c-b136-3b670c9d0009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEASED CKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30b95289-bc6c-4584-a51d-800e3b6356c9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 2G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35b215a3-75cc-4a95-859f-85a5414fcced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6bcd3b56-60af-4378-93b2-87c0aee6f0e6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAAN TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b34e5c12-9557-4a9d-a901-6e2ab561dcc0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f9f13567-b5ff-4128-9e8f-8b1ce164413d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The logical path is active and in use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">835d60a8-4ce3-4e92-a9c3-f25235b9ac70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decommissioned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The logical path has been decommissioned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54d8861d-0df4-4eb6-ab79-21c5843fd12c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inactive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INACTIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The logical path is not currently active.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d1afa648-27ba-4697-93ef-73ccd6b594ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANNED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The logical path is planned but not yet provisioned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4828d529-7f1b-489e-a444-a43a495d948b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default entry for System Capacity category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3830d349-f4ce-4391-9796-111cbf942a6f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4G (Tejas BBU): ~0.6 to 1.3 Gbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4GBBU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSNL 4G (Tejas BBU): ~0.6 to 1.3 Gbps total  (depending on 10 MHz or 20 MHz LTE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a4ccaad-c8eb-4129-abb6-90da45f4bf08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.953 Gbps(STM-64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM-64. Usable for IP (approx)	~8.4 Gbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2efeaec3-25db-4e92-bb1b-0ce370547cd6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 Gbps (B4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4 (300 Gbps): These are high-capacity pizza-box MAAN routers. They have both 100G and 10G ports. This makes them suitable for very high aggregation — e.g., many access rings → core.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3beb3ea2-55a4-48da-a7fa-f7c9ccf7de79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 Gbps (CPAN B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40G</t>
   </si>
   <si>
     <t xml:space="preserve">CPAN B1 – 40 Gbps Capacity.Switching fabric	40 Gbps
 Real-world usable	20–25 Gbps</t>
   </si>
   <si>
-    <t>42f21547-e070-4a94-a13d-d4f158e51fc1</t>
-  </si>
-  <si>
-    <t>5 Gbps (CPAN A1 / A2)</t>
-  </si>
-  <si>
-    <t>5G</t>
+    <t xml:space="preserve">42f21547-e070-4a94-a13d-d4f158e51fc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Gbps (CPAN A1 / A2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5G</t>
   </si>
   <si>
     <t xml:space="preserve">CPAN A1 / A2 – 5 Gbps Capacity. Real-World Usable Load
@@ -1472,341 +1481,381 @@
 Protection (ring 1:1 or linear) takes reserved bandwidth</t>
   </si>
   <si>
-    <t>63e6b674-0f24-4f0d-b224-a08944ca29e9</t>
-  </si>
-  <si>
-    <t>622.08 Mbps (STM-4)</t>
-  </si>
-  <si>
-    <t>.622G</t>
+    <t xml:space="preserve">63e6b674-0f24-4f0d-b224-a08944ca29e9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">622.08 Mbps (STM-4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.622G</t>
   </si>
   <si>
     <t xml:space="preserve">STM-4. Usable for IP (approx)
 ~520 Mbps</t>
   </si>
   <si>
-    <t>7244eee4-00f5-4dd7-b4a0-3cbc37abe2eb</t>
-  </si>
-  <si>
-    <t>2.488 Gbps (STM-16)</t>
-  </si>
-  <si>
-    <t>2.5G</t>
+    <t xml:space="preserve">7244eee4-00f5-4dd7-b4a0-3cbc37abe2eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.488 Gbps (STM-16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5G</t>
   </si>
   <si>
     <t xml:space="preserve">STM-16. Usable for IP (approx)
 ~2.1 Gbps</t>
   </si>
   <si>
-    <t>8be22dce-38be-47d4-a1cb-59749b7c9b07</t>
-  </si>
-  <si>
-    <t>800 Gbps (C1)</t>
-  </si>
-  <si>
-    <t>800G</t>
-  </si>
-  <si>
-    <t>C1 (800 Gbps): This is the most powerful MAAN router (chassis-based). With 4 × 100G ports and a large number of 10G and GE ports, it's designed for very high aggregate traffic — likely in the metro-core aggregation layer, pushing traffic up to BNG / super-edge / core.</t>
-  </si>
-  <si>
-    <t>8e4dde01-4900-4fa5-a9e5-9b89bfe2663a</t>
-  </si>
-  <si>
-    <t>80 Gbps (CPAN B2)</t>
-  </si>
-  <si>
-    <t>80G</t>
+    <t xml:space="preserve">8be22dce-38be-47d4-a1cb-59749b7c9b07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 Gbps (C1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1 (800 Gbps): This is the most powerful MAAN router (chassis-based). With 4 × 100G ports and a large number of 10G and GE ports, it's designed for very high aggregate traffic — likely in the metro-core aggregation layer, pushing traffic up to BNG / super-edge / core.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8e4dde01-4900-4fa5-a9e5-9b89bfe2663a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 Gbps (CPAN B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80G</t>
   </si>
   <si>
     <t xml:space="preserve">CPAN B2 – 80 Gbps Capacity.Switching Fabric	80 Gbps
 Real-world usable	40–50 Gbps</t>
   </si>
   <si>
-    <t>b63e879c-6b09-402f-8958-a45a023e4339</t>
-  </si>
-  <si>
-    <t>25 Gbps (A3 / A4)</t>
-  </si>
-  <si>
-    <t>25G</t>
-  </si>
-  <si>
-    <t>A3 / A4 (25 Gbps spec): These are “access-aggregation” MAAN nodes with modest capacity. With 2 × 10G ports, they can aggregate traffic coming from CPAN rings / local sites. Real usable traffic would be less than 25 Gbps, because of overhead + possible protection.</t>
-  </si>
-  <si>
-    <t>ce06f9b7-02e7-4741-8911-46cf1f47ffdd</t>
-  </si>
-  <si>
-    <t>60 Gbps (B3)</t>
-  </si>
-  <si>
-    <t>60G</t>
-  </si>
-  <si>
-    <t>B3 (60 Gbps): These are higher-medium aggregation nodes. With 4 × 10G + GE + STM-1 ports, they can aggregate multiple A-nodes or CPAN rings.</t>
-  </si>
-  <si>
-    <t>f972bb0d-0e3b-41bb-951b-a23846bbe250</t>
-  </si>
-  <si>
-    <t>155.52 Mbps (STM-1)</t>
-  </si>
-  <si>
-    <t>.155G</t>
-  </si>
-  <si>
-    <t>STM-1. Usable for IP (approx)~130 Mbps</t>
-  </si>
-  <si>
-    <t>abc937b6-bf1e-41a4-9a01-a21ea182e16e</t>
-  </si>
-  <si>
-    <t>Optical Transport Network</t>
-  </si>
-  <si>
-    <t>OTN</t>
-  </si>
-  <si>
-    <t>ITU-T G.709 standard for transporting multiple services over optical fiber.</t>
-  </si>
-  <si>
-    <t>09cefb6e-503b-42c2-8866-9e85f6c2c6b5</t>
-  </si>
-  <si>
-    <t>Next Gen Optical Transport Network</t>
-  </si>
-  <si>
-    <t>NGOTN</t>
-  </si>
-  <si>
-    <t>High-capacity optical transport for BSNL backbone.</t>
-  </si>
-  <si>
-    <t>32cf5e39-ca45-4728-bf99-2348d0aa3524</t>
-  </si>
-  <si>
-    <t>Synchronous Digital Hierarchy</t>
-  </si>
-  <si>
-    <t>SDH</t>
-  </si>
-  <si>
-    <t>Optical transport technology for high-speed telecom backbone.</t>
-  </si>
-  <si>
-    <t>3f040da3-c82c-41ff-8a34-543492121751</t>
-  </si>
-  <si>
-    <t>Dense Wavelength Division Multiplexing</t>
-  </si>
-  <si>
-    <t>DWDM</t>
-  </si>
-  <si>
-    <t>Multiplexing multiple optical carrier signals on a single fiber.</t>
-  </si>
-  <si>
-    <t>e34f5903-d130-404a-bda7-0a641183412f</t>
-  </si>
-  <si>
-    <t>Multiprotocol Label Switching</t>
-  </si>
-  <si>
-    <t>MPLS</t>
-  </si>
-  <si>
-    <t>Data-carrying technique for high-performance telecom networks.</t>
-  </si>
-  <si>
-    <t>cd3a0ae6-e19a-4c7d-b453-a15b0c03cdd4</t>
-  </si>
-  <si>
-    <t>Packet Transport Network</t>
-  </si>
-  <si>
-    <t>PTN</t>
-  </si>
-  <si>
-    <t>Packet-based transport system for Ethernet and TDM traffic.</t>
-  </si>
-  <si>
-    <t>73cc3c8d-ebd0-4668-8420-20516195455d</t>
-  </si>
-  <si>
-    <t>Managed Leased Line Network</t>
-  </si>
-  <si>
-    <t>MLLN</t>
-  </si>
-  <si>
-    <t>A modern system replacing traditional leased lines, offering centralized monitoring and support for higher bandwidths (e.g., N x 64 Kbps).</t>
-  </si>
-  <si>
-    <t>5e759e1c-220a-40a6-9164-005ec627dd29</t>
-  </si>
-  <si>
-    <t>Fiber To The Home</t>
-  </si>
-  <si>
-    <t>FTTH</t>
-  </si>
-  <si>
-    <t>Bharat Fiber (FTTH), offering speeds up to 300 Mbps with IPTV, VoIP, and cloud services</t>
-  </si>
-  <si>
-    <t>62d801aa-b5cd-4245-b5dc-1fbc0f27a4cc</t>
-  </si>
-  <si>
-    <t>Broadband Network Gateway</t>
-  </si>
-  <si>
-    <t>BNG</t>
-  </si>
-  <si>
-    <t>Upgraded to CUPS (Control and User Plane Separation) architecture, enhancing scalability and enterprise services</t>
-  </si>
-  <si>
-    <t>af5e5007-ab9f-4c0b-bd90-c4d3c0667ac6</t>
-  </si>
-  <si>
-    <t>Splitter Node</t>
-  </si>
-  <si>
-    <t>splitter</t>
-  </si>
-  <si>
-    <t>Access-level branching for FTTH</t>
-  </si>
-  <si>
-    <t>2f15a2f0-0433-4810-bdb7-375edf9a1413</t>
-  </si>
-  <si>
-    <t>Multiplex Section Shared Protection Ring</t>
-  </si>
-  <si>
-    <t>MS-SPRing</t>
-  </si>
-  <si>
-    <t>BSNL’s protection scheme in SDH rings.</t>
-  </si>
-  <si>
-    <t>ae96254a-dffe-4f72-84be-3b50d0929535</t>
-  </si>
-  <si>
-    <t>1G SFP Multi Mode</t>
-  </si>
-  <si>
-    <t>SFP1GMM</t>
-  </si>
-  <si>
-    <t>1Gbps optical module for MMF.</t>
-  </si>
-  <si>
-    <t>5afbb170-7321-4527-8af8-68a175a856c9</t>
-  </si>
-  <si>
-    <t>10G SFP+ Multi Mode</t>
-  </si>
-  <si>
-    <t>SFP10GMM</t>
-  </si>
-  <si>
-    <t>10Gbps optical module for MMF.</t>
-  </si>
-  <si>
-    <t>29ab5eda-735f-40c5-a8bb-789a0d8c13a2</t>
-  </si>
-  <si>
-    <t>Dense Wavelength Division Multiplex SFP</t>
-  </si>
-  <si>
-    <t>DWDMSFP</t>
-  </si>
-  <si>
-    <t>DWDM optical module.</t>
-  </si>
-  <si>
-    <t>833a0283-bbd9-4a3f-afc3-06f15053288f</t>
-  </si>
-  <si>
-    <t>Quad Small Form-factor Pluggable</t>
-  </si>
-  <si>
-    <t>QSFP</t>
-  </si>
-  <si>
-    <t>High-capacity optical module for 40G/100G.</t>
-  </si>
-  <si>
-    <t>982d70b1-f5c1-471a-ae07-51b9cd737859</t>
-  </si>
-  <si>
-    <t>1G SFP Single Mode</t>
-  </si>
-  <si>
-    <t>SFP1GSM</t>
-  </si>
-  <si>
-    <t>1Gbps optical module for SMF.</t>
-  </si>
-  <si>
-    <t>79266904-d231-46f0-809b-38e00f8dc2e2</t>
-  </si>
-  <si>
-    <t>10G SFP+ Single Mode</t>
-  </si>
-  <si>
-    <t>SFP10GSM</t>
-  </si>
-  <si>
-    <t>10Gbps optical module for SMF.</t>
-  </si>
-  <si>
-    <t>ef21f735-94e1-448f-9b17-54f0145004e0</t>
-  </si>
-  <si>
-    <t>BTS 4G</t>
-  </si>
-  <si>
-    <t>4G</t>
-  </si>
-  <si>
-    <t>1b49c00c-734e-4dd9-8e0f-c0525edd9fa1</t>
-  </si>
-  <si>
-    <t>2Mb Interface</t>
-  </si>
-  <si>
-    <t>bf63f1aa-0976-401a-8309-1ede374d0c54</t>
-  </si>
-  <si>
-    <t>Gigabit Ethernet Electrical Port</t>
-  </si>
-  <si>
-    <t>GE(E)</t>
-  </si>
-  <si>
-    <t>1 Gbps Ethernet Electrical.</t>
+    <t xml:space="preserve">b63e879c-6b09-402f-8958-a45a023e4339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Gbps (A3 / A4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3 / A4 (25 Gbps spec): These are “access-aggregation” MAAN nodes with modest capacity. With 2 × 10G ports, they can aggregate traffic coming from CPAN rings / local sites. Real usable traffic would be less than 25 Gbps, because of overhead + possible protection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce06f9b7-02e7-4741-8911-46cf1f47ffdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 Gbps (B3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3 (60 Gbps): These are higher-medium aggregation nodes. With 4 × 10G + GE + STM-1 ports, they can aggregate multiple A-nodes or CPAN rings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f972bb0d-0e3b-41bb-951b-a23846bbe250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.52 Mbps (STM-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.155G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM-1. Usable for IP (approx)~130 Mbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc937b6-bf1e-41a4-9a01-a21ea182e16e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optical Transport Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITU-T G.709 standard for transporting multiple services over optical fiber.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09cefb6e-503b-42c2-8866-9e85f6c2c6b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Gen Optical Transport Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGOTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-capacity optical transport for BSNL backbone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32cf5e39-ca45-4728-bf99-2348d0aa3524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synchronous Digital Hierarchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optical transport technology for high-speed telecom backbone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3f040da3-c82c-41ff-8a34-543492121751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dense Wavelength Division Multiplexing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplexing multiple optical carrier signals on a single fiber.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e34f5903-d130-404a-bda7-0a641183412f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiprotocol Label Switching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data-carrying technique for high-performance telecom networks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd3a0ae6-e19a-4c7d-b453-a15b0c03cdd4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packet Transport Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packet-based transport system for Ethernet and TDM traffic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73cc3c8d-ebd0-4668-8420-20516195455d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managed Leased Line Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A modern system replacing traditional leased lines, offering centralized monitoring and support for higher bandwidths (e.g., N x 64 Kbps).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5e759e1c-220a-40a6-9164-005ec627dd29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiber To The Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bharat Fiber (FTTH), offering speeds up to 300 Mbps with IPTV, VoIP, and cloud services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62d801aa-b5cd-4245-b5dc-1fbc0f27a4cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broadband Network Gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgraded to CUPS (Control and User Plane Separation) architecture, enhancing scalability and enterprise services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">af5e5007-ab9f-4c0b-bd90-c4d3c0667ac6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splitter Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">splitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access-level branching for FTTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f15a2f0-0433-4810-bdb7-375edf9a1413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplex Section Shared Protection Ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS-SPRing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSNL’s protection scheme in SDH rings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ae96254a-dffe-4f72-84be-3b50d0929535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1G SFP Multi Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFP1GMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1Gbps optical module for MMF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5afbb170-7321-4527-8af8-68a175a856c9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10G SFP+ Multi Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFP10GMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10Gbps optical module for MMF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29ab5eda-735f-40c5-a8bb-789a0d8c13a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dense Wavelength Division Multiplex SFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWDMSFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWDM optical module.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">833a0283-bbd9-4a3f-afc3-06f15053288f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quad Small Form-factor Pluggable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-capacity optical module for 40G/100G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">982d70b1-f5c1-471a-ae07-51b9cd737859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1G SFP Single Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFP1GSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1Gbps optical module for SMF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79266904-d231-46f0-809b-38e00f8dc2e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10G SFP+ Single Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFP10GSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10Gbps optical module for SMF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ef21f735-94e1-448f-9b17-54f0145004e0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1b49c00c-734e-4dd9-8e0f-c0525edd9fa1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2Mb Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bf63f1aa-0976-401a-8309-1ede374d0c54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigabit Ethernet Electrical Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE(E)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Gbps Ethernet Electrical.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0ac8fb30-626f-479e-bc12-d1312d6ba51c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e91b0249-d30e-4df9-a0c2-b073f22d577e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPILICING MACHINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1819,39 +1868,40 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
@@ -1859,91 +1909,184 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFF8F9FA"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -1951,342 +2094,198 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E167" activeCellId="0" sqref="E167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="11" width="30" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2314,14 +2313,14 @@
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K2" s="3">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -2349,14 +2348,14 @@
       <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K3" s="6">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -2384,14 +2383,14 @@
       <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K4" s="3">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -2419,14 +2418,14 @@
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K5" s="6">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2454,14 +2453,14 @@
       <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K6" s="3">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -2489,14 +2488,14 @@
       <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K7" s="6">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -2524,14 +2523,14 @@
       <c r="I8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K8" s="3">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -2559,14 +2558,14 @@
       <c r="I9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="6" t="n">
         <v>45891</v>
       </c>
-      <c r="K9" s="6">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="6" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -2594,14 +2593,14 @@
       <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="n">
         <v>45890</v>
       </c>
-      <c r="K10" s="3">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="3" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
@@ -2629,14 +2628,14 @@
       <c r="I11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="6" t="n">
         <v>45934</v>
       </c>
-      <c r="K11" s="6">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="6" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -2664,14 +2663,14 @@
       <c r="I12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K12" s="3">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>59</v>
       </c>
@@ -2699,14 +2698,14 @@
       <c r="I13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K13" s="6">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,14 +2733,14 @@
       <c r="I14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="n">
         <v>45890</v>
       </c>
-      <c r="K14" s="3">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="3" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
@@ -2769,14 +2768,14 @@
       <c r="I15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="6" t="n">
         <v>45962</v>
       </c>
-      <c r="K15" s="6">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="6" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -2804,14 +2803,14 @@
       <c r="I16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="3" t="n">
         <v>45962</v>
       </c>
-      <c r="K16" s="3">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="3" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
@@ -2839,14 +2838,14 @@
       <c r="I17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="6" t="n">
         <v>45975</v>
       </c>
-      <c r="K17" s="6">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="6" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
@@ -2874,14 +2873,14 @@
       <c r="I18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K18" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>80</v>
       </c>
@@ -2909,14 +2908,14 @@
       <c r="I19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K19" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -2944,14 +2943,14 @@
       <c r="I20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K20" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>88</v>
       </c>
@@ -2979,14 +2978,14 @@
       <c r="I21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="6" t="n">
         <v>45887</v>
       </c>
-      <c r="K21" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="22" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -3014,14 +3013,14 @@
       <c r="I22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K22" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="23" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J22" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>96</v>
       </c>
@@ -3049,14 +3048,14 @@
       <c r="I23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K23" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="24" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J23" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K23" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -3084,14 +3083,14 @@
       <c r="I24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="n">
         <v>45889</v>
       </c>
-      <c r="K24" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>104</v>
       </c>
@@ -3119,14 +3118,14 @@
       <c r="I25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="6" t="n">
         <v>45889</v>
       </c>
-      <c r="K25" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="26" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>108</v>
       </c>
@@ -3152,14 +3151,14 @@
       <c r="I26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="n">
         <v>45890</v>
       </c>
-      <c r="K26" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>111</v>
       </c>
@@ -3185,14 +3184,14 @@
       <c r="I27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="6" t="n">
         <v>45890</v>
       </c>
-      <c r="K27" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="28" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>113</v>
       </c>
@@ -3218,14 +3217,14 @@
       <c r="I28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="3" t="n">
         <v>45890</v>
       </c>
-      <c r="K28" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="29" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>115</v>
       </c>
@@ -3251,14 +3250,14 @@
       <c r="I29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="6" t="n">
         <v>45890</v>
       </c>
-      <c r="K29" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="30" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
@@ -3284,14 +3283,14 @@
       <c r="I30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="3" t="n">
         <v>45891</v>
       </c>
-      <c r="K30" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="31" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>120</v>
       </c>
@@ -3317,14 +3316,14 @@
       <c r="I31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="6" t="n">
         <v>45891</v>
       </c>
-      <c r="K31" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="32" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>123</v>
       </c>
@@ -3352,14 +3351,14 @@
       <c r="I32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K32" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="33" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J32" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>127</v>
       </c>
@@ -3387,14 +3386,14 @@
       <c r="I33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="6" t="n">
         <v>45934</v>
       </c>
-      <c r="K33" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="34" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>131</v>
       </c>
@@ -3422,14 +3421,14 @@
       <c r="I34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="K34" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="35" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
@@ -3457,14 +3456,14 @@
       <c r="I35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="6" t="n">
         <v>45985</v>
       </c>
-      <c r="K35" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="36" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>140</v>
       </c>
@@ -3492,14 +3491,14 @@
       <c r="I36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="K36" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="37" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>144</v>
       </c>
@@ -3527,14 +3526,14 @@
       <c r="I37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="6" t="n">
         <v>45936</v>
       </c>
-      <c r="K37" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="38" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>148</v>
       </c>
@@ -3562,14 +3561,14 @@
       <c r="I38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K38" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="39" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J38" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>152</v>
       </c>
@@ -3597,14 +3596,14 @@
       <c r="I39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K39" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="40" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J39" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K39" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>156</v>
       </c>
@@ -3632,14 +3631,14 @@
       <c r="I40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K40" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="41" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J40" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>160</v>
       </c>
@@ -3667,14 +3666,14 @@
       <c r="I41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K41" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="42" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J41" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K41" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>164</v>
       </c>
@@ -3702,14 +3701,14 @@
       <c r="I42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K42" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="43" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J42" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>168</v>
       </c>
@@ -3737,14 +3736,14 @@
       <c r="I43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K43" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="44" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J43" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K43" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>172</v>
       </c>
@@ -3772,14 +3771,14 @@
       <c r="I44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K44" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="45" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J44" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>176</v>
       </c>
@@ -3807,14 +3806,14 @@
       <c r="I45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J45" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K45" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="46" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J45" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K45" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>180</v>
       </c>
@@ -3842,14 +3841,14 @@
       <c r="I46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K46" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="47" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J46" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>184</v>
       </c>
@@ -3877,14 +3876,14 @@
       <c r="I47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J47" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K47" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="48" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J47" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K47" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>188</v>
       </c>
@@ -3912,14 +3911,14 @@
       <c r="I48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K48" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="49" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J48" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>192</v>
       </c>
@@ -3947,14 +3946,14 @@
       <c r="I49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J49" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K49" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="50" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J49" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K49" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>196</v>
       </c>
@@ -3982,14 +3981,14 @@
       <c r="I50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K50" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="51" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J50" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>200</v>
       </c>
@@ -4017,14 +4016,14 @@
       <c r="I51" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K51" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="52" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J51" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K51" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>204</v>
       </c>
@@ -4052,14 +4051,14 @@
       <c r="I52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K52" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="53" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J52" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
         <v>208</v>
       </c>
@@ -4087,14 +4086,14 @@
       <c r="I53" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J53" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K53" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="54" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J53" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K53" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>212</v>
       </c>
@@ -4122,14 +4121,14 @@
       <c r="I54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J54" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K54" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="55" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J54" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>216</v>
       </c>
@@ -4157,14 +4156,14 @@
       <c r="I55" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K55" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="56" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J55" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K55" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>220</v>
       </c>
@@ -4192,14 +4191,14 @@
       <c r="I56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K56" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="57" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J56" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>224</v>
       </c>
@@ -4227,14 +4226,14 @@
       <c r="I57" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="6" t="n">
         <v>45936</v>
       </c>
-      <c r="K57" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="58" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>228</v>
       </c>
@@ -4262,14 +4261,14 @@
       <c r="I58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K58" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="59" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J58" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K58" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>232</v>
       </c>
@@ -4297,14 +4296,14 @@
       <c r="I59" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K59" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="60" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J59" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K59" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>236</v>
       </c>
@@ -4332,14 +4331,14 @@
       <c r="I60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J60" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K60" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="61" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J60" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K60" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
         <v>240</v>
       </c>
@@ -4367,14 +4366,14 @@
       <c r="I61" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J61" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K61" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="62" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J61" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K61" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>244</v>
       </c>
@@ -4402,14 +4401,14 @@
       <c r="I62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J62" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K62" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="63" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J62" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K62" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>248</v>
       </c>
@@ -4437,14 +4436,14 @@
       <c r="I63" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K63" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="64" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J63" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K63" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>252</v>
       </c>
@@ -4472,14 +4471,14 @@
       <c r="I64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K64" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="65" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J64" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K64" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>256</v>
       </c>
@@ -4507,14 +4506,14 @@
       <c r="I65" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J65" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K65" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="66" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J65" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K65" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>260</v>
       </c>
@@ -4542,14 +4541,14 @@
       <c r="I66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J66" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K66" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="67" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J66" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K66" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>264</v>
       </c>
@@ -4577,14 +4576,14 @@
       <c r="I67" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J67" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K67" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="68" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J67" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K67" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>268</v>
       </c>
@@ -4612,14 +4611,14 @@
       <c r="I68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K68" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="69" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J68" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K68" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>272</v>
       </c>
@@ -4647,14 +4646,14 @@
       <c r="I69" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K69" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="70" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J69" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K69" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>276</v>
       </c>
@@ -4682,14 +4681,14 @@
       <c r="I70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J70" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K70" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="71" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J70" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K70" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>280</v>
       </c>
@@ -4717,14 +4716,14 @@
       <c r="I71" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J71" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K71" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="72" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J71" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K71" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>284</v>
       </c>
@@ -4752,14 +4751,14 @@
       <c r="I72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J72" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K72" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="73" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J72" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K72" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>288</v>
       </c>
@@ -4787,14 +4786,14 @@
       <c r="I73" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J73" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K73" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="74" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J73" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K73" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>292</v>
       </c>
@@ -4822,14 +4821,14 @@
       <c r="I74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J74" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K74" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="75" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J74" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K74" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>296</v>
       </c>
@@ -4857,14 +4856,14 @@
       <c r="I75" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J75" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K75" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="76" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J75" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K75" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>300</v>
       </c>
@@ -4892,14 +4891,14 @@
       <c r="I76" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J76" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K76" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="77" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J76" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K76" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>304</v>
       </c>
@@ -4927,14 +4926,14 @@
       <c r="I77" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J77" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K77" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="78" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J77" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K77" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>308</v>
       </c>
@@ -4962,14 +4961,14 @@
       <c r="I78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J78" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K78" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="79" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J78" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K78" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>312</v>
       </c>
@@ -4997,14 +4996,14 @@
       <c r="I79" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J79" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K79" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="80" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J79" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K79" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>316</v>
       </c>
@@ -5032,14 +5031,14 @@
       <c r="I80" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J80" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K80" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="81" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J80" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K80" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>320</v>
       </c>
@@ -5067,14 +5066,14 @@
       <c r="I81" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J81" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K81" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="82" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J81" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K81" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>324</v>
       </c>
@@ -5102,14 +5101,14 @@
       <c r="I82" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J82" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K82" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="83" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J82" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K82" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>328</v>
       </c>
@@ -5137,14 +5136,14 @@
       <c r="I83" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J83" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K83" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="84" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J83" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K83" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>332</v>
       </c>
@@ -5172,14 +5171,14 @@
       <c r="I84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J84" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K84" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="85" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J84" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K84" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
         <v>336</v>
       </c>
@@ -5207,14 +5206,14 @@
       <c r="I85" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J85" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K85" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="86" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J85" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K85" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>340</v>
       </c>
@@ -5242,14 +5241,14 @@
       <c r="I86" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J86" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K86" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="87" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J86" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K86" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
         <v>344</v>
       </c>
@@ -5277,14 +5276,14 @@
       <c r="I87" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J87" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K87" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="88" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J87" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K87" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>348</v>
       </c>
@@ -5312,14 +5311,14 @@
       <c r="I88" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J88" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K88" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="89" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J88" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K88" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>352</v>
       </c>
@@ -5347,14 +5346,14 @@
       <c r="I89" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J89" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K89" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="90" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J89" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K89" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>356</v>
       </c>
@@ -5382,14 +5381,14 @@
       <c r="I90" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J90" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K90" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="91" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J90" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K90" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>360</v>
       </c>
@@ -5417,14 +5416,14 @@
       <c r="I91" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J91" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K91" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="92" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J91" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K91" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>364</v>
       </c>
@@ -5452,14 +5451,14 @@
       <c r="I92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J92" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K92" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="93" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J92" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K92" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
         <v>368</v>
       </c>
@@ -5487,14 +5486,14 @@
       <c r="I93" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J93" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K93" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="94" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J93" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K93" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>372</v>
       </c>
@@ -5522,14 +5521,14 @@
       <c r="I94" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J94" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K94" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="95" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J94" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K94" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
         <v>376</v>
       </c>
@@ -5557,14 +5556,14 @@
       <c r="I95" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J95" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K95" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="96" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J95" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K95" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>380</v>
       </c>
@@ -5592,14 +5591,14 @@
       <c r="I96" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J96" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K96" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="97" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J96" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K96" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
         <v>384</v>
       </c>
@@ -5627,14 +5626,14 @@
       <c r="I97" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J97" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K97" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="98" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J97" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K97" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>388</v>
       </c>
@@ -5662,14 +5661,14 @@
       <c r="I98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J98" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K98" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="99" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J98" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K98" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
         <v>392</v>
       </c>
@@ -5697,14 +5696,14 @@
       <c r="I99" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J99" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K99" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="100" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J99" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K99" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>396</v>
       </c>
@@ -5732,14 +5731,14 @@
       <c r="I100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J100" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K100" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="101" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J100" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K100" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
         <v>400</v>
       </c>
@@ -5767,14 +5766,14 @@
       <c r="I101" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J101" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K101" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="102" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J101" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K101" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>404</v>
       </c>
@@ -5802,14 +5801,14 @@
       <c r="I102" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J102" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K102" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="103" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J102" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K102" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
         <v>408</v>
       </c>
@@ -5837,14 +5836,14 @@
       <c r="I103" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J103" s="6">
+      <c r="J103" s="6" t="n">
         <v>45945</v>
       </c>
-      <c r="K103" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="104" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K103" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>412</v>
       </c>
@@ -5870,14 +5869,14 @@
       <c r="I104" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104" s="3" t="n">
         <v>45962</v>
       </c>
-      <c r="K104" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="105" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
         <v>415</v>
       </c>
@@ -5903,14 +5902,14 @@
       <c r="I105" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J105" s="6">
+      <c r="J105" s="6" t="n">
         <v>45962</v>
       </c>
-      <c r="K105" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="106" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>418</v>
       </c>
@@ -5938,14 +5937,14 @@
       <c r="I106" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J106" s="3">
+      <c r="J106" s="3" t="n">
         <v>45975</v>
       </c>
-      <c r="K106" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="107" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K106" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
         <v>422</v>
       </c>
@@ -5973,14 +5972,14 @@
       <c r="I107" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J107" s="6">
+      <c r="J107" s="6" t="n">
         <v>45975</v>
       </c>
-      <c r="K107" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="108" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K107" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>426</v>
       </c>
@@ -6006,14 +6005,14 @@
       <c r="I108" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J108" s="3">
+      <c r="J108" s="3" t="n">
         <v>45975</v>
       </c>
-      <c r="K108" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="109" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K108" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>429</v>
       </c>
@@ -6039,14 +6038,14 @@
       <c r="I109" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J109" s="6">
+      <c r="J109" s="6" t="n">
         <v>45975</v>
       </c>
-      <c r="K109" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="110" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K109" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>432</v>
       </c>
@@ -6072,14 +6071,14 @@
       <c r="I110" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J110" s="3">
+      <c r="J110" s="3" t="n">
         <v>45975</v>
       </c>
-      <c r="K110" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="111" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K110" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
         <v>435</v>
       </c>
@@ -6105,14 +6104,14 @@
       <c r="I111" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J111" s="6">
+      <c r="J111" s="6" t="n">
         <v>45975</v>
       </c>
-      <c r="K111" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="112" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K111" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>438</v>
       </c>
@@ -6138,14 +6137,14 @@
       <c r="I112" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J112" s="3">
+      <c r="J112" s="3" t="n">
         <v>45975</v>
       </c>
-      <c r="K112" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="113" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K112" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
         <v>441</v>
       </c>
@@ -6171,14 +6170,14 @@
       <c r="I113" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J113" s="6">
+      <c r="J113" s="6" t="n">
         <v>45975</v>
       </c>
-      <c r="K113" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="114" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>444</v>
       </c>
@@ -6204,14 +6203,14 @@
       <c r="I114" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J114" s="3" t="n">
         <v>45975</v>
       </c>
-      <c r="K114" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="115" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K114" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>446</v>
       </c>
@@ -6239,14 +6238,14 @@
       <c r="I115" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J115" s="6">
+      <c r="J115" s="6" t="n">
         <v>45978</v>
       </c>
-      <c r="K115" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="116" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K115" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>450</v>
       </c>
@@ -6274,14 +6273,14 @@
       <c r="I116" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J116" s="3" t="n">
         <v>45978</v>
       </c>
-      <c r="K116" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="117" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K116" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
         <v>454</v>
       </c>
@@ -6309,14 +6308,14 @@
       <c r="I117" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J117" s="6">
+      <c r="J117" s="6" t="n">
         <v>45978</v>
       </c>
-      <c r="K117" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="118" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K117" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>458</v>
       </c>
@@ -6344,14 +6343,14 @@
       <c r="I118" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J118" s="3">
+      <c r="J118" s="3" t="n">
         <v>45978</v>
       </c>
-      <c r="K118" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="119" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K118" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
         <v>462</v>
       </c>
@@ -6379,14 +6378,14 @@
       <c r="I119" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J119" s="6">
+      <c r="J119" s="6" t="n">
         <v>45984</v>
       </c>
-      <c r="K119" s="6">
-        <v>45987.77008486111</v>
-      </c>
-    </row>
-    <row r="120" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K119" s="6" t="n">
+        <v>45987.7700848611</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>464</v>
       </c>
@@ -6414,14 +6413,14 @@
       <c r="I120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J120" s="3">
+      <c r="J120" s="3" t="n">
         <v>45984</v>
       </c>
-      <c r="K120" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="121" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K120" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
         <v>468</v>
       </c>
@@ -6449,14 +6448,14 @@
       <c r="I121" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J121" s="6">
+      <c r="J121" s="6" t="n">
         <v>45984</v>
       </c>
-      <c r="K121" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="122" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K121" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>472</v>
       </c>
@@ -6484,14 +6483,14 @@
       <c r="I122" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J122" s="3">
+      <c r="J122" s="3" t="n">
         <v>45984</v>
       </c>
-      <c r="K122" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="123" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K122" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
         <v>476</v>
       </c>
@@ -6519,14 +6518,14 @@
       <c r="I123" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J123" s="6">
+      <c r="J123" s="6" t="n">
         <v>45984</v>
       </c>
-      <c r="K123" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="124" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K123" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>480</v>
       </c>
@@ -6554,14 +6553,14 @@
       <c r="I124" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J124" s="3">
+      <c r="J124" s="3" t="n">
         <v>45984</v>
       </c>
-      <c r="K124" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="125" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K124" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
         <v>484</v>
       </c>
@@ -6589,14 +6588,14 @@
       <c r="I125" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J125" s="6">
+      <c r="J125" s="6" t="n">
         <v>45984</v>
       </c>
-      <c r="K125" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="126" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K125" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>488</v>
       </c>
@@ -6624,14 +6623,14 @@
       <c r="I126" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J126" s="3">
+      <c r="J126" s="3" t="n">
         <v>45984</v>
       </c>
-      <c r="K126" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="127" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K126" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
         <v>492</v>
       </c>
@@ -6659,14 +6658,14 @@
       <c r="I127" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J127" s="6">
+      <c r="J127" s="6" t="n">
         <v>45984</v>
       </c>
-      <c r="K127" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="128" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K127" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>496</v>
       </c>
@@ -6694,14 +6693,14 @@
       <c r="I128" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J128" s="3">
+      <c r="J128" s="3" t="n">
         <v>45984</v>
       </c>
-      <c r="K128" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="129" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K128" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
         <v>500</v>
       </c>
@@ -6729,14 +6728,14 @@
       <c r="I129" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J129" s="6">
+      <c r="J129" s="6" t="n">
         <v>45984</v>
       </c>
-      <c r="K129" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="130" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K129" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>504</v>
       </c>
@@ -6764,14 +6763,14 @@
       <c r="I130" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J130" s="3">
+      <c r="J130" s="3" t="n">
         <v>45984</v>
       </c>
-      <c r="K130" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="131" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K130" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
         <v>508</v>
       </c>
@@ -6799,14 +6798,14 @@
       <c r="I131" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J131" s="6">
+      <c r="J131" s="6" t="n">
         <v>45984</v>
       </c>
-      <c r="K131" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="132" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K131" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>512</v>
       </c>
@@ -6834,14 +6833,14 @@
       <c r="I132" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J132" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K132" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="133" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J132" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K132" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
         <v>516</v>
       </c>
@@ -6869,14 +6868,14 @@
       <c r="I133" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J133" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K133" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="134" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J133" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K133" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>520</v>
       </c>
@@ -6904,14 +6903,14 @@
       <c r="I134" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J134" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K134" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="135" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J134" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K134" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
         <v>524</v>
       </c>
@@ -6939,14 +6938,14 @@
       <c r="I135" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J135" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K135" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="136" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J135" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K135" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>528</v>
       </c>
@@ -6974,14 +6973,14 @@
       <c r="I136" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J136" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K136" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="137" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J136" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K136" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
         <v>532</v>
       </c>
@@ -7009,14 +7008,14 @@
       <c r="I137" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J137" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K137" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="138" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J137" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K137" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>536</v>
       </c>
@@ -7044,14 +7043,14 @@
       <c r="I138" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J138" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K138" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="139" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J138" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K138" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
         <v>540</v>
       </c>
@@ -7079,14 +7078,14 @@
       <c r="I139" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J139" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K139" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="140" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J139" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K139" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>544</v>
       </c>
@@ -7114,14 +7113,14 @@
       <c r="I140" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J140" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K140" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="141" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J140" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K140" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
         <v>548</v>
       </c>
@@ -7149,14 +7148,14 @@
       <c r="I141" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J141" s="6">
+      <c r="J141" s="6" t="n">
         <v>45887</v>
       </c>
-      <c r="K141" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="142" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K141" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>552</v>
       </c>
@@ -7184,14 +7183,14 @@
       <c r="I142" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J142" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K142" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="143" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J142" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K142" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
         <v>556</v>
       </c>
@@ -7219,14 +7218,14 @@
       <c r="I143" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J143" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K143" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="144" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J143" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K143" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>560</v>
       </c>
@@ -7254,14 +7253,14 @@
       <c r="I144" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J144" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K144" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="145" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J144" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K144" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
         <v>564</v>
       </c>
@@ -7289,14 +7288,14 @@
       <c r="I145" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J145" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K145" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="146" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J145" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K145" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>568</v>
       </c>
@@ -7324,14 +7323,14 @@
       <c r="I146" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J146" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K146" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="147" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J146" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K146" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>572</v>
       </c>
@@ -7359,14 +7358,14 @@
       <c r="I147" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J147" s="6">
-        <v>45879</v>
-      </c>
-      <c r="K147" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="148" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J147" s="6" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K147" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>576</v>
       </c>
@@ -7394,14 +7393,14 @@
       <c r="I148" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J148" s="3">
-        <v>45879</v>
-      </c>
-      <c r="K148" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="149" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J148" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K148" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>580</v>
       </c>
@@ -7427,14 +7426,14 @@
       <c r="I149" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J149" s="6">
+      <c r="J149" s="6" t="n">
         <v>45975</v>
       </c>
-      <c r="K149" s="6">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="150" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K149" s="6" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>583</v>
       </c>
@@ -7462,14 +7461,14 @@
       <c r="I150" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J150" s="3">
+      <c r="J150" s="3" t="n">
         <v>45975</v>
       </c>
-      <c r="K150" s="3">
+      <c r="K150" s="3" t="n">
         <v>45985</v>
       </c>
     </row>
-    <row r="151" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
         <v>585</v>
       </c>
@@ -7497,15 +7496,86 @@
       <c r="I151" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J151" s="9">
-        <v>45879</v>
-      </c>
-      <c r="K151" s="9">
+      <c r="J151" s="9" t="n">
+        <v>45879</v>
+      </c>
+      <c r="K151" s="9" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" s="3" t="n">
+        <v>45962</v>
+      </c>
+      <c r="K152" s="3" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" s="3" t="n">
+        <v>45962</v>
+      </c>
+      <c r="K153" s="3" t="n">
         <v>45987</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>